--- a/Source/Paper 2 - Systematic Review/Systematic Review searches/finalArticleList(AutoRecovered).xlsx
+++ b/Source/Paper 2 - Systematic Review/Systematic Review searches/finalArticleList(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joe/Documents/PhD/Source/Paper 2 - Systematic Review/Systematic Review searches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE49388-3AED-1A49-9120-74F4ADA1CA55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0E2D56-2758-D346-AAC1-CCBBC29BA0EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,10 @@
     <sheet name="Snowball" sheetId="7" r:id="rId3"/>
     <sheet name="Final List" sheetId="8" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="1512">
   <si>
     <t>Predicting Short-term MCI-to-AD Progression Using Imaging, CSF, Genetic Factors, Cognitive Resilience, and Demographics</t>
   </si>
@@ -4531,9 +4533,6 @@
     <t>Abnormalities of connected speech in semantic dementia vs Alzheimer’s disease</t>
   </si>
   <si>
-    <t>Abnormalities of Connected Speech in Semantic Dementia vs Alzheimer’s disease</t>
-  </si>
-  <si>
     <t>A Comparison of Syntax, Semantics, and Pragmatics in Spoken Language among Residents with Alzheimer’s Disease in Managed-Care Facilities</t>
   </si>
   <si>
@@ -4568,6 +4567,9 @@
   </si>
   <si>
     <t>The Effect of Heterogeneous Data for Alzheimer’s Disease Detection from Speech</t>
+  </si>
+  <si>
+    <t>Social Markers of MCI: Prortion of Word Counts in Free Conversation Speech</t>
   </si>
 </sst>
 </file>
@@ -5157,6 +5159,2342 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1 (2)"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Player</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Stephen Curry</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Chris Paul</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Russell Westbrook</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>John Wall</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>James Harden</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>LeBron James</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Kevin Durant</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Kemba Walker</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Blake Griffin</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Kyle Lowry</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Paul George</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Klay Thompson</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Jimmy Butler</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Kawhi Leonard</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Gordon Hayward</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Mike Conley</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Kyrie Irving</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Tobias Harris</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Khris Middleton</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Paul Millsap</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Damian Lillard</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Kevin Love</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Nikola Vucuvic</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Al Horford</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>DeMar DeRozan</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>CJ McCollum</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Kristaps Porzingis</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>D'Angelo Russell</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Andrew Wiggins</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Joel Embiid</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Otto Porter</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Devin Booker</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Karl-Anthony Towns</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Bradley Beal</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Anthony Davis</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Andre Drummond</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Hassan Whiteside</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Nikola Joki</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Jrue Holiday</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>LaMarcus Aldridge</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Steven Adams</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Giannis Antetokounmpo</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Marc Gasol</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Nicolas Batum</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Chandler Parsons</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Rudy Gobert</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Serge Ibaka</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Danilo Gallinari</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Victor Oladipo</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Malcolm Brogdon</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Terry Rozier</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Aaron Gordon</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Zach LaVine</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Kent Bazemore</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Tyler Johnson</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Goran Dragic</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Jeff Teague</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Harrison Barnes</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Evan Turner</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>Draymond Green</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Tristan Thompson</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Allen Crabbe</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Tim Hardaway</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Reggie Jackson</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Myles Turner</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Julius Randle</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Gary Harris</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Andre Iguodala</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v xml:space="preserve">Bojan Bogdanovic </v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Evan Fournier</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>Bismack Biyombo</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Derrick Favors</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Clint Capela</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>Gorgui Dieng</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Ricky Rubio</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Jonas Valancunas</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Brandon Knight</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Eric Bledsoe</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>Kelly Oubre</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>Dennis Schroder</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>Ian Mahinmi</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>James Johnson</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>Marvin Williams</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>Marcus Morris</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>Bobby Portis</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>Danny Green</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>Cody Zeller</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>Eric Gordon</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Mason Plumlee</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>Rudy Gay</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>J.J. Redick</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>Jordan Clarkson</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>Dewayne Dedmon</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>Solomon Hill</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>Justise Winslow</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>Michael Kidd-Gilchrist</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>Will Barton</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>Thaddeus Young</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>Courtney Lee</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>Larry Nance</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>Marcus Smart</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>Terrence Ross</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>Miles Plumlee</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>Patty Mills</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>Patrick Beverley</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>Trevor Ariza</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>Dion Waiters</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>Brook Lopez</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v xml:space="preserve">Jusuf Nurkic </v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>Cory Joseph</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>Joe Ingles</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>Kelly Olynyk</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>Maurice Harkless</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>Tony Snell</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>Robert Covington</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>Meyers Leonard</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>T.J. Warren</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>Andre Roberson</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>Spencer Dinwiddie</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>Jeremy Lamb</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>Dwight Powell</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>Norman Powell</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>Josh Richardson</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>Tomas Satoransky</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>DeAndre Jordan</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>Taj Gibson</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>Zion Williamson</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>Markelle Fultz</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>John Henson</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>Matthew Dellavedova</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>Dante Exum</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>Deandre Ayton</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>Delon Wright</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>Jerami Grant</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>Al-Farouq Aminu</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>George Hill</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>Kyle Anderson</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>Fred VanVleet</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>Ja Morant</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>C.J. Miles</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>Lonzo Ball</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>E'Twaun Moore</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>Marvin Bagley</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>Bogdan Bogdanovic</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>Tyus Jones</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>P.J. Tucker</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>Cristiano Felicio</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>Ben Simmons</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>Kentavious Caldwell-Pope</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>Maxi Kleber</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>Lou Williams</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>Elfrid Payton</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>Thomas Bryant</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>RJ Barrett</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>Jayson Tatum</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>Jae Crowder</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>Wayne Ellington</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>Luka Doncic</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>Joe Harris</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>Seth Curry</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>Doug McDermott</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>Langston Galloway</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>Derrick Rose</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>Brandon Ingram</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>D.J. Augustin</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>Darius Miller</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>De'Andre Hunter</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>Josh Jackson</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>DeMarre Carroll</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>Davis Bertans</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>Ersan Ilyasova</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>Jaren Jackson</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>Nemanja Bjelica</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>Jaylen Brown</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>Jabari Parker</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>Ivica Zubac</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>Joakim Noah</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>Darius Garland</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>De'Aaron Fox</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>Trae Young</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>Montrezl Harrell</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>Ish Smith</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>Marco Belinelli</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>Jarrett Culver</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>Jonathan Isaac</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>Rodney Hood</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>Mohamed Bamba</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>Dwight Howard</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>Timofey Mozgov</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>Trey Lyles</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>Deron Williams</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194" t="str">
+            <v>Aron Baynes</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195" t="str">
+            <v>Kris Dunn</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196" t="str">
+            <v>Josh Smith</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>Coby White</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>Lauri Markkanen</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>Ryan Anderson</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>Wendell Carter</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>Pau Gasol</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202" t="str">
+            <v>Daniel Theis</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203" t="str">
+            <v>Luol Deng</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204" t="str">
+            <v>Jaxson Hayes</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205" t="str">
+            <v>Buddy Hield</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206" t="str">
+            <v>Frank Ntilikina</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207" t="str">
+            <v>Ed Davis</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208" t="str">
+            <v>Richaun Holmes</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209" t="str">
+            <v>Frank Kaminsky</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210" t="str">
+            <v>Mike Scott</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211" t="str">
+            <v>Avery Bradley</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212" t="str">
+            <v>Robin Lopez</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213" t="str">
+            <v>JaMychal Green</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214" t="str">
+            <v>Garrett Temple</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215" t="str">
+            <v>Enes Kanter</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216" t="str">
+            <v>Collin Sexton</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217" t="str">
+            <v>Rodney McGruder</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218" t="str">
+            <v>Kevon Looney</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219" t="str">
+            <v>Rui Hachimura</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220" t="str">
+            <v>Dennis Smith</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221" t="str">
+            <v>Jamal Murray</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222" t="str">
+            <v>Kevin Knox</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223" t="str">
+            <v>Cam Reddish</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224" t="str">
+            <v>Zach Collins</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225" t="str">
+            <v>Mikal Bridges</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226" t="str">
+            <v>Alex Len</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227" t="str">
+            <v>Cameron Johnson</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228" t="str">
+            <v>Malik Monk</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229" t="str">
+            <v>Dorian Finney-Smith</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230" t="str">
+            <v>JaVale McGee</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231" t="str">
+            <v>Patrick McCaw</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232" t="str">
+            <v>Reggie Bullock</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233" t="str">
+            <v>Shai Gilgeous-Alexander</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234" t="str">
+            <v>Nicolo Melli</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235" t="str">
+            <v>PJ Washington</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236" t="str">
+            <v>Luke Kennard</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237" t="str">
+            <v>Miles Bridges</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238" t="str">
+            <v>Jakob P</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239" t="str">
+            <v>Tyler Herro</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240" t="str">
+            <v>Donovan Mitchell</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241" t="str">
+            <v>Stanley Johnson</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242" t="str">
+            <v>Jake Layman</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243" t="str">
+            <v>Thon Maker</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244" t="str">
+            <v>Jerome Robinson</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245" t="str">
+            <v>Allonzo Trier</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246" t="str">
+            <v>Danuel House</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247" t="str">
+            <v>Domantas Sabonis</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248" t="str">
+            <v xml:space="preserve">Mirza Teletovic </v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249" t="str">
+            <v>DeMarcus Cousins</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250" t="str">
+            <v>Dario Saric</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251" t="str">
+            <v>Taurean Waller-Prince</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252" t="str">
+            <v>Romeo Langford</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253" t="str">
+            <v>Bam Adebayo</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254" t="str">
+            <v>Kyle Korver</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255" t="str">
+            <v>Michael Porter</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256" t="str">
+            <v>Denzel Valentine</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257" t="str">
+            <v>Juan Hernangomez</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258" t="str">
+            <v>Sekou Doumbouya</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259" t="str">
+            <v>Justin Jackson</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260" t="str">
+            <v>Troy Brown</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261" t="str">
+            <v>Markieff Morris</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262" t="str">
+            <v>Jon Leuer</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263" t="str">
+            <v>Yogi Ferrell</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264" t="str">
+            <v>Guerschon Yabusele</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265" t="str">
+            <v>Zhaire Smith</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266" t="str">
+            <v>Khem Birch</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267" t="str">
+            <v>Ryan Arcidiacono</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268" t="str">
+            <v>Quinn Cook</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269" t="str">
+            <v>Omer Asik</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270" t="str">
+            <v>Nickeil Alexander-Walker</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271" t="str">
+            <v>D.J. Wilson</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272" t="str">
+            <v>Cedi Osman</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273" t="str">
+            <v>Donte DiVincenzo</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274" t="str">
+            <v>Bryn Forbes</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275" t="str">
+            <v>Andrew Nicholson</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276" t="str">
+            <v>Goga Bitadze</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277" t="str">
+            <v>T.J. Leaf</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278" t="str">
+            <v>Lonnie Walker</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279" t="str">
+            <v>Alex Caruso</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280" t="str">
+            <v>Malik Beasley</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281" t="str">
+            <v xml:space="preserve">Luka Samanic </v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282" t="str">
+            <v>John Collins</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283" t="str">
+            <v>Kevin Huerter</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284" t="str">
+            <v>Caris LeVert</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285" t="str">
+            <v>DeAndre' Bembry</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286" t="str">
+            <v>Matisse Thybulle</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287" t="str">
+            <v>Harry Giles</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288" t="str">
+            <v>Jeff Green</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289" t="str">
+            <v>Anthony Tolliver</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290" t="str">
+            <v>Wesley Matthews</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291" t="str">
+            <v>Rajon Rondo</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292" t="str">
+            <v>Jared Dudley</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293" t="str">
+            <v>Gerald Green</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294" t="str">
+            <v>Tyson Chandler</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295" t="str">
+            <v>Wilson Chandler</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296" t="str">
+            <v>Josh Okogie</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297" t="str">
+            <v>Rondae Hollis-Jefferson</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298" t="str">
+            <v>Brandon Clarke</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299" t="str">
+            <v>Terrance Ferguson</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300" t="str">
+            <v>Grayson Allen</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301" t="str">
+            <v>Grant Williams</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302" t="str">
+            <v>Jarrett Allen</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303" t="str">
+            <v>Pascal Siakam</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304" t="str">
+            <v>Skal Labissiere</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305" t="str">
+            <v>Chandler Hutchison</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306" t="str">
+            <v>Patrick Patterson</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307" t="str">
+            <v>Dejounte Murray</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308" t="str">
+            <v>Isaiah Thomas</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309" t="str">
+            <v>Alec Burks</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310" t="str">
+            <v>Damian Jones</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311" t="str">
+            <v>Darius Bazley</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312" t="str">
+            <v>OG Anunoby</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313" t="str">
+            <v>Ante Zizic</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314" t="str">
+            <v>Monta Ellis</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315" t="str">
+            <v>Aaron Holiday</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316" t="str">
+            <v>Luke Kornet</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317" t="str">
+            <v>Ty Jerome</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318" t="str">
+            <v>Willie Cauley-Stein</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319" t="str">
+            <v>Austin Rivers</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320" t="str">
+            <v>Anfernee Simons</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321" t="str">
+            <v>Matt Barnes</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322" t="str">
+            <v>Nassir Little</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323" t="str">
+            <v>Torrey Craig</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324" t="str">
+            <v>Moritz Wagner</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325" t="str">
+            <v>Dylan Windler</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326" t="str">
+            <v>Caleb Swanigan</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327" t="str">
+            <v>Kyle O'Quinn</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328" t="str">
+            <v>Michael Carter-Williams</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329" t="str">
+            <v>Nerlens Noel</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330" t="str">
+            <v>Mike Muscala</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331" t="str">
+            <v>Troy Daniels</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332" t="str">
+            <v>Trey Burke</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333" t="str">
+            <v>Spencer Hawes</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334" t="str">
+            <v>Edmond Sumner</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335" t="str">
+            <v>Noah Vonleh</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336" t="str">
+            <v>Avery Bradley</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337" t="str">
+            <v>Landry Shamet</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338" t="str">
+            <v>Mfiondu Kabengele</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339" t="str">
+            <v>Kyle Kuzma</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340" t="str">
+            <v>Jordan Poole</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341" t="str">
+            <v>Tony Bradley</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342" t="str">
+            <v>Keldon Johnson</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343" t="str">
+            <v>Derrick White</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344" t="str">
+            <v>Robert Williams</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345" t="str">
+            <v>Josh Hart</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346" t="str">
+            <v>Jacob Evans</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v>Anderson Varejao</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v>Dzanan Musa</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v>Omari Spellman</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v>James Ennis</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
+            <v>Shabazz Napier</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352" t="str">
+            <v>Glenn Robinson</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v>Tim Frazier</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v>Ben McLemore</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v>Larry Sanders</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v>Bruno Caboclo</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357" t="str">
+            <v>Mario Hezonja</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358" t="str">
+            <v>Emmanuel Mudiay</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359" t="str">
+            <v>Raul Neto</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360" t="str">
+            <v>JaKarr Sampson</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361" t="str">
+            <v>Cameron Payne</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362" t="str">
+            <v>Anthony Bennett</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363" t="str">
+            <v>Pat Connaughton</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364" t="str">
+            <v>Jahlil Okafor</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>Rodions Kurucs</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366" t="str">
+            <v>Jonah Bolden</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367" t="str">
+            <v>Cheick Diallo</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v>Treveon Graham</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v>David Nwaba</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v>Dragan Bender</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v>Willy Hernangomez</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v>Isaac Bonga</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v>Derrick Jones</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v>Jordan McRae</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v>Georges Niang</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v>Christian Wood</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v>Justin Patton</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v>Tyler Lydon</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v>Wesley Iwundu</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v>Abdel Nader</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v>Damyean Dotson</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382" t="str">
+            <v>Frank Jackson</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383" t="str">
+            <v>Sterling Brown</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v>Dillon Brooks</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v>Dwayne Bacon</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v>Semi Ojeleye</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v>Ivan Rabb</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v>Royce O'Neale</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v>Monte Morris</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v>Antonio Blakeney</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v>Malcolm Miller</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v>Chris Boucher</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v>Tyrone Wallace</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v>Alfonzo McKinnie</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v>Mitchell Robinson</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v>Isaiah Roby</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v>Nigel Williams-Goss</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v>J.R. Smith</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v>Shake Milton</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v>Thanasis Antetokounmpo</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v>Theo Pinson</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v>Brad Wanamaker</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v>Ryan Broekhoff</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v>Kenrich Williams</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405" t="str">
+            <v>Gary Trent</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v>Chimezie Metu</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v>Jevon Carter</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v>Elie Okobo</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v>Melvin Frazier</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v>Deonte Burton</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v>Hamidou Diallo</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v>Keita Bates-Diop</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v>De'Anthony Melton</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v>Alize Johnson</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v>Bruce Brown</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v>Sviatoslav Mykhailiuk</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v>Jarred Vanderbilt</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v>Devonte' Graham</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v>Duncan Robinson</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v>Isaiah Hartenstein</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v>Gary Clark</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v>Jemerrio Jones</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v>Kendrick Nunn</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v>Michael Frazier</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v>Jalen Brunson</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426" t="str">
+            <v>Bruno Fernando</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427" t="str">
+            <v>Jaylen Nowell</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v>Kevin Porter</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v>Carsen Edwards</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v>Cody Martin</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v>George Hill</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v>Terance Mann</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v>Jonathon Simmons</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v>Justin Hamilton</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v>Kyle Singler</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v>Admiral Schofield</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v>KZ Okpala</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v>Eric Paschall</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v>Nicolas Claxton</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v>Justin James</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v>Ignas Brazdeikis</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442" t="str">
+            <v>Talen Horton-Tucker</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443" t="str">
+            <v>Daniel Gafford</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v xml:space="preserve">Alen Smailagic </v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v>Miye Oni</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v>Naz Reid</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v>Dewan Hernandez</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v>Justin Robinson</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v>Stanton Kidd</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v>Shaquille Harrison</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v>Javonte Green</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v>William Howard</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v>Caleb Martin</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v>Khyri Thomas</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v>Patrick Patterson</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v>Cole Aldrich</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v>Shaun Livingston</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v>Dakari Johnson</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v>A.J. Hammons</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v>Festus Ezeli</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v>C.J. Watson</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462" t="str">
+            <v>Troy Williams</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463" t="str">
+            <v>Yante Maten</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="B464" t="str">
+            <v>Jaylen Adams</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="B465" t="str">
+            <v>Demetrius Jackson</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13030,27 +15368,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -13065,37 +15403,37 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -13105,10 +15443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD670F-282D-4D4B-806E-31A3F2D5A43D}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13123,207 +15461,142 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>1449</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>615</v>
+      <c r="A5" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>1502</v>
+      <c r="A6" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>115</v>
+      <c r="A7" s="6" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>490</v>
+      <c r="A8" s="6" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>372</v>
+      <c r="A10" s="6" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>840</v>
+      <c r="A14" s="6" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>286</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>1503</v>
+      <c r="A16" s="5" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>1494</v>
+      <c r="A17" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>1493</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>1492</v>
+      <c r="A19" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>506</v>
+      <c r="A20" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>1491</v>
+      <c r="A21" s="5" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>1490</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>1319</v>
+      <c r="A23" s="5" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>1505</v>
+      <c r="A24" s="10" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>29</v>
+      <c r="A26" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>1014</v>
+      <c r="A27" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A28" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>1298</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A43">
-    <sortCondition ref="A1:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A30">
+    <sortCondition ref="A1:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
